--- a/Docs/OSBMS Slave BOM.xlsx
+++ b/Docs/OSBMS Slave BOM.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marshall Scholz\Documents\kicad\BMS project\OpenBMS\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Mouser #</t>
   </si>
@@ -31,12 +39,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>quat 10 cost</t>
-  </si>
-  <si>
-    <t>quat 100 cost</t>
-  </si>
-  <si>
     <t>ATA6870N-PLQWCT-ND</t>
   </si>
   <si>
@@ -184,32 +186,60 @@
     <t>thermistor and thermistor resistors are not included in this bom as of yet</t>
   </si>
   <si>
-    <t>thermistor </t>
-  </si>
-  <si>
-    <t>?k resistor for thermistor </t>
+    <t>thermistor</t>
+  </si>
+  <si>
+    <t>?k resistor for thermistor</t>
+  </si>
+  <si>
+    <t>cost 100 PCB</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>pcb (board$10 + shipping $5) / 5 boards</t>
+  </si>
+  <si>
+    <t>cost 1 PCB (est)</t>
+  </si>
+  <si>
+    <t>~$1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="4">
@@ -229,12 +259,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -249,332 +281,692 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
-      <alignment/>
-    </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="2">
-      <alignment/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="22.71"/>
-    <col min="2" customWidth="1" max="2" width="24.29"/>
-    <col min="3" customWidth="1" max="3" width="68.71"/>
-    <col min="4" customWidth="1" max="4" width="16.43"/>
-    <col min="5" customWidth="1" max="5" width="29.71"/>
-    <col min="6" customWidth="1" max="6" width="125.43"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="125.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="2" r="G1">
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="3" r="H1">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c t="s" s="3" r="B2">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="3" r="C2">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c s="3" r="D2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="3" r="B3">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="3" r="C3">
+      <c r="H3" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c s="3" r="D3">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="3" r="F3">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c t="s" s="3" r="B4">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="4" r="C4">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="D4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="3" r="B5">
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="3" r="C5">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c s="3" r="D5">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="3" r="B6">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="3" r="C6">
+      <c r="H6" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c s="3" r="D6">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="F6">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7">
-      <c t="s" s="3" r="B7">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="3" r="C7">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c s="3" r="D7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="3" r="B8">
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="3" r="C8">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c s="3" r="D8">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="3" r="A9">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="3" r="C9">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c s="3" r="D9">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="3" r="A10">
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="3" r="C10">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c s="3" r="D10">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="3" r="A11">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="3" r="C11">
+      <c r="H11" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c s="3" r="D11">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="F11">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12">
-      <c t="s" s="3" r="A12">
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="3" r="C12">
+      <c r="H12" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c s="3" r="D12">
-        <v>6.0</v>
-      </c>
-      <c t="s" s="3" r="F12">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13">
-      <c t="s" s="3" r="A13">
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="3" r="C13">
+      <c r="H13" s="9">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c s="3" r="D13">
-        <v>6.0</v>
-      </c>
-      <c t="s" s="3" r="F13">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14">
-      <c t="s" s="3" r="A14">
+      <c r="E14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="3" r="C14">
+      <c r="H14" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c s="3" r="D14">
-        <v>6.0</v>
-      </c>
-      <c t="s" s="3" r="F14">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15">
-      <c t="s" s="3" r="A15">
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="3" r="C15">
+      <c r="H15" s="9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c s="3" r="D15">
-        <v>6.0</v>
-      </c>
-      <c t="s" s="3" r="F15">
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
-      <c t="s" s="3" r="A16">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="3" r="C16">
+      <c r="H16" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c s="3" r="D16">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="F16">
+      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17">
-      <c t="s" s="3" r="A17">
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="3" r="C17">
+      <c r="H17" s="9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c s="3" r="D17">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="3" r="F17">
+      <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18">
-      <c t="s" s="3" r="A18">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="3" r="C18">
+      <c r="H18" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
-      <c s="3" r="D18">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="3" r="F18">
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20">
-      <c t="s" s="3" r="C20">
+      <c r="F20" s="2" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="3" r="D20">
+      <c r="G20" s="2" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="3" r="E20">
+      <c r="H20" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="3" r="F20">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22">
-      <c t="s" s="3" r="C22">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23">
-      <c t="s" s="3" r="C23">
-        <v>57</v>
-      </c>
-      <c s="3" r="D23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c t="s" s="3" r="C24">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="11" t="s">
         <v>58</v>
       </c>
-      <c s="3" r="D24">
-        <v>2.0</v>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="6">
+        <f>SUM(H2:H18) +H23+H21+H24</f>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/OSBMS Slave BOM.xlsx
+++ b/Docs/OSBMS Slave BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Mouser #</t>
   </si>
@@ -51,9 +51,6 @@
     <t>CONN HEADER GH SIDE 9POS 1.25MM</t>
   </si>
   <si>
-    <t>spi bus connector</t>
-  </si>
-  <si>
     <t>455-1599-ND</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>CONN HEADER XH SIDE 7POS 2.5MM</t>
   </si>
   <si>
-    <t>battery connection header. may move to a dual pth/smd capable board</t>
-  </si>
-  <si>
     <t>455-2269-ND</t>
   </si>
   <si>
@@ -117,15 +111,6 @@
     <t>led resistor. leave out if not populating leds</t>
   </si>
   <si>
-    <t>279-352110RFT</t>
-  </si>
-  <si>
-    <t>Thick Film Resistors - SMD 3521 10R 1% 2W</t>
-  </si>
-  <si>
-    <t>will probably be replaced in the future with multiple smaller resistor packages</t>
-  </si>
-  <si>
     <t>859-LTST-C191KRKT</t>
   </si>
   <si>
@@ -150,27 +135,18 @@
     <t>Tantalum Capacitors - Solid SMD 6.3volts 33uF 3.2x1.6</t>
   </si>
   <si>
-    <t>min voltage 3.3v</t>
-  </si>
-  <si>
     <t>81-GRM188R61E105KA12</t>
   </si>
   <si>
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0603 1uF 25volts X5R 10%</t>
   </si>
   <si>
-    <t>min voltage 5v</t>
-  </si>
-  <si>
     <t>963-GMK316F106ZL-T</t>
   </si>
   <si>
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT Y5V 1206 35V 10uF +80/-20%</t>
   </si>
   <si>
-    <t>min voltage 30v - could possibly go for a larger vltage if 35v causes problems. (fully charged 6s lipo pack = 25.2v)</t>
-  </si>
-  <si>
     <t>9-10 pin ribbon cable</t>
   </si>
   <si>
@@ -205,6 +181,27 @@
   </si>
   <si>
     <t>~$1</t>
+  </si>
+  <si>
+    <t>4 needed per channel. Together they equal approximately 20 ohms</t>
+  </si>
+  <si>
+    <t>RNCP1206FTD82R5CT-ND</t>
+  </si>
+  <si>
+    <t>RES 82.5 OHM 1/2W 1% 1206</t>
+  </si>
+  <si>
+    <t>774-742C083102JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor Networks &amp; Arrays 1Kohms 50V 5% </t>
+  </si>
+  <si>
+    <t>I love this thing. It cuts down the part count so much and makes everything much more compact.</t>
+  </si>
+  <si>
+    <t>battery connection header. Compatable with hobbyking battery 6s balance connectors. This may change</t>
   </si>
 </sst>
 </file>
@@ -584,385 +581,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="125.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="125.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="G2" s="8">
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="G10" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="G11" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G25" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="6">
-        <f>SUM(H2:H18) +H23+H21+H24</f>
-        <v>18.5</v>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="6">
+        <f>SUM(G2:G19) +G24+G22+G25</f>
+        <v>17.55</v>
       </c>
     </row>
   </sheetData>
